--- a/db/load/cdisc/ct/changes/2021-03-26/SDTM Terminology Changes 2021-03-26.xlsx
+++ b/db/load/cdisc/ct/changes/2021-03-26/SDTM Terminology Changes 2021-03-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-03-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DED44B-E054-564D-AE78-AA9C352E6789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E32E44-686F-C840-9D64-4C2C64657D74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="500" windowWidth="36320" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6606,7 +6606,7 @@
   <dimension ref="A1:Q863"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M872" sqref="M872"/>
     </sheetView>
   </sheetViews>
@@ -6755,7 +6755,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="28" hidden="1">
+    <row r="4" spans="1:17" ht="28">
       <c r="A4" s="6">
         <v>44281</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" ht="28" hidden="1">
+    <row r="14" spans="1:17" ht="42" hidden="1">
       <c r="A14" s="6">
         <v>44281</v>
       </c>
@@ -7355,7 +7355,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" ht="28" hidden="1">
+    <row r="19" spans="1:17" ht="42" hidden="1">
       <c r="A19" s="6">
         <v>44281</v>
       </c>
@@ -13373,7 +13373,7 @@
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
     </row>
-    <row r="171" spans="1:17" ht="28" hidden="1">
+    <row r="171" spans="1:17" ht="42" hidden="1">
       <c r="A171" s="6">
         <v>44281</v>
       </c>
@@ -13607,7 +13607,7 @@
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
     </row>
-    <row r="177" spans="1:17" ht="28" hidden="1">
+    <row r="177" spans="1:17" ht="28">
       <c r="A177" s="6">
         <v>44281</v>
       </c>
@@ -13934,7 +13934,7 @@
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
     </row>
-    <row r="185" spans="1:17" ht="42" hidden="1">
+    <row r="185" spans="1:17" ht="42">
       <c r="A185" s="6">
         <v>44281</v>
       </c>
@@ -15810,7 +15810,7 @@
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
     </row>
-    <row r="233" spans="1:17" ht="126" hidden="1">
+    <row r="233" spans="1:17" ht="126">
       <c r="A233" s="6">
         <v>44281</v>
       </c>
@@ -15931,7 +15931,7 @@
       <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
     </row>
-    <row r="236" spans="1:17" ht="126" hidden="1">
+    <row r="236" spans="1:17" ht="126">
       <c r="A236" s="6">
         <v>44281</v>
       </c>
@@ -24387,7 +24387,7 @@
       <c r="P449" s="3"/>
       <c r="Q449" s="3"/>
     </row>
-    <row r="450" spans="1:17" ht="28" hidden="1">
+    <row r="450" spans="1:17" ht="28">
       <c r="A450" s="6">
         <v>44281</v>
       </c>
@@ -24430,7 +24430,7 @@
       <c r="P450" s="3"/>
       <c r="Q450" s="3"/>
     </row>
-    <row r="451" spans="1:17" ht="56" hidden="1">
+    <row r="451" spans="1:17" ht="56">
       <c r="A451" s="6">
         <v>44281</v>
       </c>
@@ -24473,7 +24473,7 @@
       <c r="P451" s="3"/>
       <c r="Q451" s="3"/>
     </row>
-    <row r="452" spans="1:17" ht="56" hidden="1">
+    <row r="452" spans="1:17" ht="56">
       <c r="A452" s="6">
         <v>44281</v>
       </c>
@@ -24527,7 +24527,7 @@
         <v>Remove C156548 from codelist. This concept will be moved to MIFTSDTL codelist. Existing, published MITST/MITSTCD values can be used instead.</v>
       </c>
     </row>
-    <row r="453" spans="1:17" ht="56" hidden="1">
+    <row r="453" spans="1:17" ht="56">
       <c r="A453" s="6">
         <v>44281</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>Remove C156548 from codelist. This concept will be moved to MIFTSDTL codelist. Existing, published MITST/MITSTCD values can be used instead.</v>
       </c>
     </row>
-    <row r="454" spans="1:17" ht="28" hidden="1">
+    <row r="454" spans="1:17" ht="28">
       <c r="A454" s="6">
         <v>44281</v>
       </c>
@@ -31378,7 +31378,7 @@
       <c r="P626" s="3"/>
       <c r="Q626" s="3"/>
     </row>
-    <row r="627" spans="1:17" ht="42" hidden="1">
+    <row r="627" spans="1:17" ht="42">
       <c r="A627" s="6">
         <v>44281</v>
       </c>
@@ -31499,7 +31499,7 @@
       <c r="P629" s="3"/>
       <c r="Q629" s="3"/>
     </row>
-    <row r="630" spans="1:17" ht="84" hidden="1">
+    <row r="630" spans="1:17" ht="84">
       <c r="A630" s="6">
         <v>44281</v>
       </c>
@@ -32917,7 +32917,7 @@
       <c r="P665" s="3"/>
       <c r="Q665" s="3"/>
     </row>
-    <row r="666" spans="1:17" ht="126" hidden="1">
+    <row r="666" spans="1:17" ht="126">
       <c r="A666" s="6">
         <v>44281</v>
       </c>
@@ -33088,7 +33088,7 @@
       <c r="P669" s="3"/>
       <c r="Q669" s="3"/>
     </row>
-    <row r="670" spans="1:17" ht="126" hidden="1">
+    <row r="670" spans="1:17" ht="126">
       <c r="A670" s="6">
         <v>44281</v>
       </c>
@@ -33142,7 +33142,7 @@
         <v>The concept 'Number of Live Births' C178141 was mis-coded to C16955/Parity. However these are not synonymous. Because a separate test of PARITY has been added to the RPTEST-CD codelists with P45, the existing term Number of Live Births/BRTHLVN has gotten a new C-code (C178141) while the new concept of Parity has been correctly associated with C16955.</v>
       </c>
     </row>
-    <row r="671" spans="1:17" ht="42" hidden="1">
+    <row r="671" spans="1:17" ht="70" hidden="1">
       <c r="A671" s="6">
         <v>44281</v>
       </c>
@@ -34429,7 +34429,7 @@
       <c r="P703" s="3"/>
       <c r="Q703" s="3"/>
     </row>
-    <row r="704" spans="1:17" ht="28" hidden="1">
+    <row r="704" spans="1:17" ht="70" hidden="1">
       <c r="A704" s="6">
         <v>44281</v>
       </c>
@@ -34468,7 +34468,7 @@
       <c r="P704" s="3"/>
       <c r="Q704" s="3"/>
     </row>
-    <row r="705" spans="1:17" ht="42" hidden="1">
+    <row r="705" spans="1:17" ht="140" hidden="1">
       <c r="A705" s="6">
         <v>44281</v>
       </c>
@@ -34507,7 +34507,7 @@
       <c r="P705" s="3"/>
       <c r="Q705" s="3"/>
     </row>
-    <row r="706" spans="1:17" ht="28" hidden="1">
+    <row r="706" spans="1:17" ht="84" hidden="1">
       <c r="A706" s="6">
         <v>44281</v>
       </c>
@@ -34546,7 +34546,7 @@
       <c r="P706" s="3"/>
       <c r="Q706" s="3"/>
     </row>
-    <row r="707" spans="1:17" ht="28" hidden="1">
+    <row r="707" spans="1:17" ht="70" hidden="1">
       <c r="A707" s="6">
         <v>44281</v>
       </c>
@@ -34585,7 +34585,7 @@
       <c r="P707" s="3"/>
       <c r="Q707" s="3"/>
     </row>
-    <row r="708" spans="1:17" ht="42" hidden="1">
+    <row r="708" spans="1:17" ht="140" hidden="1">
       <c r="A708" s="6">
         <v>44281</v>
       </c>
@@ -34624,7 +34624,7 @@
       <c r="P708" s="3"/>
       <c r="Q708" s="3"/>
     </row>
-    <row r="709" spans="1:17" ht="28" hidden="1">
+    <row r="709" spans="1:17" ht="84" hidden="1">
       <c r="A709" s="6">
         <v>44281</v>
       </c>
@@ -34663,7 +34663,7 @@
       <c r="P709" s="3"/>
       <c r="Q709" s="3"/>
     </row>
-    <row r="710" spans="1:17" ht="28" hidden="1">
+    <row r="710" spans="1:17" ht="70" hidden="1">
       <c r="A710" s="6">
         <v>44281</v>
       </c>
@@ -34858,7 +34858,7 @@
       <c r="P714" s="3"/>
       <c r="Q714" s="3"/>
     </row>
-    <row r="715" spans="1:17" ht="42" hidden="1">
+    <row r="715" spans="1:17" ht="140" hidden="1">
       <c r="A715" s="6">
         <v>44281</v>
       </c>
@@ -34975,7 +34975,7 @@
       <c r="P717" s="3"/>
       <c r="Q717" s="3"/>
     </row>
-    <row r="718" spans="1:17" ht="42" hidden="1">
+    <row r="718" spans="1:17" ht="140" hidden="1">
       <c r="A718" s="6">
         <v>44281</v>
       </c>
@@ -35053,7 +35053,7 @@
       <c r="P719" s="3"/>
       <c r="Q719" s="3"/>
     </row>
-    <row r="720" spans="1:17" ht="42" hidden="1">
+    <row r="720" spans="1:17" ht="84" hidden="1">
       <c r="A720" s="6">
         <v>44281</v>
       </c>
@@ -35092,7 +35092,7 @@
       <c r="P720" s="3"/>
       <c r="Q720" s="3"/>
     </row>
-    <row r="721" spans="1:17" ht="42" hidden="1">
+    <row r="721" spans="1:17" ht="56" hidden="1">
       <c r="A721" s="6">
         <v>44281</v>
       </c>
@@ -35170,7 +35170,7 @@
       <c r="P722" s="3"/>
       <c r="Q722" s="3"/>
     </row>
-    <row r="723" spans="1:17" ht="42" hidden="1">
+    <row r="723" spans="1:17" ht="84" hidden="1">
       <c r="A723" s="6">
         <v>44281</v>
       </c>
@@ -35209,7 +35209,7 @@
       <c r="P723" s="3"/>
       <c r="Q723" s="3"/>
     </row>
-    <row r="724" spans="1:17" ht="42" hidden="1">
+    <row r="724" spans="1:17" ht="84" hidden="1">
       <c r="A724" s="6">
         <v>44281</v>
       </c>
@@ -35248,7 +35248,7 @@
       <c r="P724" s="3"/>
       <c r="Q724" s="3"/>
     </row>
-    <row r="725" spans="1:17" ht="42" hidden="1">
+    <row r="725" spans="1:17" ht="84" hidden="1">
       <c r="A725" s="6">
         <v>44281</v>
       </c>
@@ -35287,7 +35287,7 @@
       <c r="P725" s="3"/>
       <c r="Q725" s="3"/>
     </row>
-    <row r="726" spans="1:17" ht="42" hidden="1">
+    <row r="726" spans="1:17" ht="84" hidden="1">
       <c r="A726" s="6">
         <v>44281</v>
       </c>
@@ -35326,7 +35326,7 @@
       <c r="P726" s="3"/>
       <c r="Q726" s="3"/>
     </row>
-    <row r="727" spans="1:17" ht="42" hidden="1">
+    <row r="727" spans="1:17" ht="84" hidden="1">
       <c r="A727" s="6">
         <v>44281</v>
       </c>
@@ -35365,7 +35365,7 @@
       <c r="P727" s="3"/>
       <c r="Q727" s="3"/>
     </row>
-    <row r="728" spans="1:17" ht="42" hidden="1">
+    <row r="728" spans="1:17" ht="84" hidden="1">
       <c r="A728" s="6">
         <v>44281</v>
       </c>
@@ -35404,7 +35404,7 @@
       <c r="P728" s="3"/>
       <c r="Q728" s="3"/>
     </row>
-    <row r="729" spans="1:17" ht="42" hidden="1">
+    <row r="729" spans="1:17" ht="84" hidden="1">
       <c r="A729" s="6">
         <v>44281</v>
       </c>
@@ -35443,7 +35443,7 @@
       <c r="P729" s="3"/>
       <c r="Q729" s="3"/>
     </row>
-    <row r="730" spans="1:17" ht="42" hidden="1">
+    <row r="730" spans="1:17" ht="84" hidden="1">
       <c r="A730" s="6">
         <v>44281</v>
       </c>
@@ -35482,7 +35482,7 @@
       <c r="P730" s="3"/>
       <c r="Q730" s="3"/>
     </row>
-    <row r="731" spans="1:17" ht="42" hidden="1">
+    <row r="731" spans="1:17" ht="84" hidden="1">
       <c r="A731" s="6">
         <v>44281</v>
       </c>
@@ -35521,7 +35521,7 @@
       <c r="P731" s="3"/>
       <c r="Q731" s="3"/>
     </row>
-    <row r="732" spans="1:17" ht="42" hidden="1">
+    <row r="732" spans="1:17" ht="84" hidden="1">
       <c r="A732" s="6">
         <v>44281</v>
       </c>
@@ -35560,7 +35560,7 @@
       <c r="P732" s="3"/>
       <c r="Q732" s="3"/>
     </row>
-    <row r="733" spans="1:17" ht="42" hidden="1">
+    <row r="733" spans="1:17" ht="84" hidden="1">
       <c r="A733" s="6">
         <v>44281</v>
       </c>
@@ -35599,7 +35599,7 @@
       <c r="P733" s="3"/>
       <c r="Q733" s="3"/>
     </row>
-    <row r="734" spans="1:17" ht="42" hidden="1">
+    <row r="734" spans="1:17" ht="84" hidden="1">
       <c r="A734" s="6">
         <v>44281</v>
       </c>
@@ -35638,7 +35638,7 @@
       <c r="P734" s="3"/>
       <c r="Q734" s="3"/>
     </row>
-    <row r="735" spans="1:17" ht="42" hidden="1">
+    <row r="735" spans="1:17" ht="84" hidden="1">
       <c r="A735" s="6">
         <v>44281</v>
       </c>
@@ -35677,7 +35677,7 @@
       <c r="P735" s="3"/>
       <c r="Q735" s="3"/>
     </row>
-    <row r="736" spans="1:17" ht="42" hidden="1">
+    <row r="736" spans="1:17" ht="84" hidden="1">
       <c r="A736" s="6">
         <v>44281</v>
       </c>
@@ -35716,7 +35716,7 @@
       <c r="P736" s="3"/>
       <c r="Q736" s="3"/>
     </row>
-    <row r="737" spans="1:17" ht="42" hidden="1">
+    <row r="737" spans="1:17" ht="84" hidden="1">
       <c r="A737" s="6">
         <v>44281</v>
       </c>
@@ -35755,7 +35755,7 @@
       <c r="P737" s="3"/>
       <c r="Q737" s="3"/>
     </row>
-    <row r="738" spans="1:17" ht="42" hidden="1">
+    <row r="738" spans="1:17" ht="84" hidden="1">
       <c r="A738" s="6">
         <v>44281</v>
       </c>
@@ -35794,7 +35794,7 @@
       <c r="P738" s="3"/>
       <c r="Q738" s="3"/>
     </row>
-    <row r="739" spans="1:17" ht="42" hidden="1">
+    <row r="739" spans="1:17" ht="84" hidden="1">
       <c r="A739" s="6">
         <v>44281</v>
       </c>
@@ -35833,7 +35833,7 @@
       <c r="P739" s="3"/>
       <c r="Q739" s="3"/>
     </row>
-    <row r="740" spans="1:17" ht="42" hidden="1">
+    <row r="740" spans="1:17" ht="84" hidden="1">
       <c r="A740" s="6">
         <v>44281</v>
       </c>
@@ -35872,7 +35872,7 @@
       <c r="P740" s="3"/>
       <c r="Q740" s="3"/>
     </row>
-    <row r="741" spans="1:17" ht="42" hidden="1">
+    <row r="741" spans="1:17" ht="84" hidden="1">
       <c r="A741" s="6">
         <v>44281</v>
       </c>
@@ -35911,7 +35911,7 @@
       <c r="P741" s="3"/>
       <c r="Q741" s="3"/>
     </row>
-    <row r="742" spans="1:17" ht="42" hidden="1">
+    <row r="742" spans="1:17" ht="84" hidden="1">
       <c r="A742" s="6">
         <v>44281</v>
       </c>
@@ -35950,7 +35950,7 @@
       <c r="P742" s="3"/>
       <c r="Q742" s="3"/>
     </row>
-    <row r="743" spans="1:17" ht="42" hidden="1">
+    <row r="743" spans="1:17" ht="84" hidden="1">
       <c r="A743" s="6">
         <v>44281</v>
       </c>
@@ -35989,7 +35989,7 @@
       <c r="P743" s="3"/>
       <c r="Q743" s="3"/>
     </row>
-    <row r="744" spans="1:17" ht="42" hidden="1">
+    <row r="744" spans="1:17" ht="84" hidden="1">
       <c r="A744" s="6">
         <v>44281</v>
       </c>
@@ -36028,7 +36028,7 @@
       <c r="P744" s="3"/>
       <c r="Q744" s="3"/>
     </row>
-    <row r="745" spans="1:17" ht="42" hidden="1">
+    <row r="745" spans="1:17" ht="84" hidden="1">
       <c r="A745" s="6">
         <v>44281</v>
       </c>
@@ -36067,7 +36067,7 @@
       <c r="P745" s="3"/>
       <c r="Q745" s="3"/>
     </row>
-    <row r="746" spans="1:17" ht="42" hidden="1">
+    <row r="746" spans="1:17" ht="84" hidden="1">
       <c r="A746" s="6">
         <v>44281</v>
       </c>
@@ -36106,7 +36106,7 @@
       <c r="P746" s="3"/>
       <c r="Q746" s="3"/>
     </row>
-    <row r="747" spans="1:17" ht="42" hidden="1">
+    <row r="747" spans="1:17" ht="84" hidden="1">
       <c r="A747" s="6">
         <v>44281</v>
       </c>
@@ -36145,7 +36145,7 @@
       <c r="P747" s="3"/>
       <c r="Q747" s="3"/>
     </row>
-    <row r="748" spans="1:17" ht="42" hidden="1">
+    <row r="748" spans="1:17" ht="84" hidden="1">
       <c r="A748" s="6">
         <v>44281</v>
       </c>
@@ -36184,7 +36184,7 @@
       <c r="P748" s="3"/>
       <c r="Q748" s="3"/>
     </row>
-    <row r="749" spans="1:17" ht="42" hidden="1">
+    <row r="749" spans="1:17" ht="84" hidden="1">
       <c r="A749" s="6">
         <v>44281</v>
       </c>
@@ -36223,7 +36223,7 @@
       <c r="P749" s="3"/>
       <c r="Q749" s="3"/>
     </row>
-    <row r="750" spans="1:17" ht="42" hidden="1">
+    <row r="750" spans="1:17" ht="84" hidden="1">
       <c r="A750" s="6">
         <v>44281</v>
       </c>
@@ -36262,7 +36262,7 @@
       <c r="P750" s="3"/>
       <c r="Q750" s="3"/>
     </row>
-    <row r="751" spans="1:17" ht="42" hidden="1">
+    <row r="751" spans="1:17" ht="84" hidden="1">
       <c r="A751" s="6">
         <v>44281</v>
       </c>
@@ -36301,7 +36301,7 @@
       <c r="P751" s="3"/>
       <c r="Q751" s="3"/>
     </row>
-    <row r="752" spans="1:17" ht="42" hidden="1">
+    <row r="752" spans="1:17" ht="84" hidden="1">
       <c r="A752" s="6">
         <v>44281</v>
       </c>
@@ -36340,7 +36340,7 @@
       <c r="P752" s="3"/>
       <c r="Q752" s="3"/>
     </row>
-    <row r="753" spans="1:17" ht="42" hidden="1">
+    <row r="753" spans="1:17" ht="84" hidden="1">
       <c r="A753" s="6">
         <v>44281</v>
       </c>
@@ -36379,7 +36379,7 @@
       <c r="P753" s="3"/>
       <c r="Q753" s="3"/>
     </row>
-    <row r="754" spans="1:17" ht="42" hidden="1">
+    <row r="754" spans="1:17" ht="84" hidden="1">
       <c r="A754" s="6">
         <v>44281</v>
       </c>
@@ -36418,7 +36418,7 @@
       <c r="P754" s="3"/>
       <c r="Q754" s="3"/>
     </row>
-    <row r="755" spans="1:17" ht="42" hidden="1">
+    <row r="755" spans="1:17" ht="84" hidden="1">
       <c r="A755" s="6">
         <v>44281</v>
       </c>
@@ -36457,7 +36457,7 @@
       <c r="P755" s="3"/>
       <c r="Q755" s="3"/>
     </row>
-    <row r="756" spans="1:17" ht="42" hidden="1">
+    <row r="756" spans="1:17" ht="84" hidden="1">
       <c r="A756" s="6">
         <v>44281</v>
       </c>
@@ -36496,7 +36496,7 @@
       <c r="P756" s="3"/>
       <c r="Q756" s="3"/>
     </row>
-    <row r="757" spans="1:17" ht="42" hidden="1">
+    <row r="757" spans="1:17" ht="84" hidden="1">
       <c r="A757" s="6">
         <v>44281</v>
       </c>
@@ -36535,7 +36535,7 @@
       <c r="P757" s="3"/>
       <c r="Q757" s="3"/>
     </row>
-    <row r="758" spans="1:17" ht="42" hidden="1">
+    <row r="758" spans="1:17" ht="84" hidden="1">
       <c r="A758" s="6">
         <v>44281</v>
       </c>
@@ -36574,7 +36574,7 @@
       <c r="P758" s="3"/>
       <c r="Q758" s="3"/>
     </row>
-    <row r="759" spans="1:17" ht="42" hidden="1">
+    <row r="759" spans="1:17" ht="84" hidden="1">
       <c r="A759" s="6">
         <v>44281</v>
       </c>
@@ -36613,7 +36613,7 @@
       <c r="P759" s="3"/>
       <c r="Q759" s="3"/>
     </row>
-    <row r="760" spans="1:17" ht="42" hidden="1">
+    <row r="760" spans="1:17" ht="84" hidden="1">
       <c r="A760" s="6">
         <v>44281</v>
       </c>
@@ -36652,7 +36652,7 @@
       <c r="P760" s="3"/>
       <c r="Q760" s="3"/>
     </row>
-    <row r="761" spans="1:17" ht="42" hidden="1">
+    <row r="761" spans="1:17" ht="84" hidden="1">
       <c r="A761" s="6">
         <v>44281</v>
       </c>
@@ -36691,7 +36691,7 @@
       <c r="P761" s="3"/>
       <c r="Q761" s="3"/>
     </row>
-    <row r="762" spans="1:17" ht="42" hidden="1">
+    <row r="762" spans="1:17" ht="84" hidden="1">
       <c r="A762" s="6">
         <v>44281</v>
       </c>
@@ -36730,7 +36730,7 @@
       <c r="P762" s="3"/>
       <c r="Q762" s="3"/>
     </row>
-    <row r="763" spans="1:17" ht="42" hidden="1">
+    <row r="763" spans="1:17" ht="84" hidden="1">
       <c r="A763" s="6">
         <v>44281</v>
       </c>
@@ -36769,7 +36769,7 @@
       <c r="P763" s="3"/>
       <c r="Q763" s="3"/>
     </row>
-    <row r="764" spans="1:17" ht="42" hidden="1">
+    <row r="764" spans="1:17" ht="84" hidden="1">
       <c r="A764" s="6">
         <v>44281</v>
       </c>
@@ -36808,7 +36808,7 @@
       <c r="P764" s="3"/>
       <c r="Q764" s="3"/>
     </row>
-    <row r="765" spans="1:17" ht="42" hidden="1">
+    <row r="765" spans="1:17" ht="84" hidden="1">
       <c r="A765" s="6">
         <v>44281</v>
       </c>
@@ -36847,7 +36847,7 @@
       <c r="P765" s="3"/>
       <c r="Q765" s="3"/>
     </row>
-    <row r="766" spans="1:17" ht="42" hidden="1">
+    <row r="766" spans="1:17" ht="84" hidden="1">
       <c r="A766" s="6">
         <v>44281</v>
       </c>
@@ -36886,7 +36886,7 @@
       <c r="P766" s="3"/>
       <c r="Q766" s="3"/>
     </row>
-    <row r="767" spans="1:17" ht="42" hidden="1">
+    <row r="767" spans="1:17" ht="84" hidden="1">
       <c r="A767" s="6">
         <v>44281</v>
       </c>
@@ -36925,7 +36925,7 @@
       <c r="P767" s="3"/>
       <c r="Q767" s="3"/>
     </row>
-    <row r="768" spans="1:17" ht="42" hidden="1">
+    <row r="768" spans="1:17" ht="84" hidden="1">
       <c r="A768" s="6">
         <v>44281</v>
       </c>
@@ -36964,7 +36964,7 @@
       <c r="P768" s="3"/>
       <c r="Q768" s="3"/>
     </row>
-    <row r="769" spans="1:17" ht="42" hidden="1">
+    <row r="769" spans="1:17" ht="84" hidden="1">
       <c r="A769" s="6">
         <v>44281</v>
       </c>
@@ -37003,7 +37003,7 @@
       <c r="P769" s="3"/>
       <c r="Q769" s="3"/>
     </row>
-    <row r="770" spans="1:17" ht="42" hidden="1">
+    <row r="770" spans="1:17" ht="84" hidden="1">
       <c r="A770" s="6">
         <v>44281</v>
       </c>
@@ -37042,7 +37042,7 @@
       <c r="P770" s="3"/>
       <c r="Q770" s="3"/>
     </row>
-    <row r="771" spans="1:17" ht="42" hidden="1">
+    <row r="771" spans="1:17" ht="84" hidden="1">
       <c r="A771" s="6">
         <v>44281</v>
       </c>
@@ -37081,7 +37081,7 @@
       <c r="P771" s="3"/>
       <c r="Q771" s="3"/>
     </row>
-    <row r="772" spans="1:17" ht="42" hidden="1">
+    <row r="772" spans="1:17" ht="84" hidden="1">
       <c r="A772" s="6">
         <v>44281</v>
       </c>
@@ -37120,7 +37120,7 @@
       <c r="P772" s="3"/>
       <c r="Q772" s="3"/>
     </row>
-    <row r="773" spans="1:17" ht="42" hidden="1">
+    <row r="773" spans="1:17" ht="84" hidden="1">
       <c r="A773" s="6">
         <v>44281</v>
       </c>
@@ -37159,7 +37159,7 @@
       <c r="P773" s="3"/>
       <c r="Q773" s="3"/>
     </row>
-    <row r="774" spans="1:17" ht="42" hidden="1">
+    <row r="774" spans="1:17" ht="84" hidden="1">
       <c r="A774" s="6">
         <v>44281</v>
       </c>
@@ -37198,7 +37198,7 @@
       <c r="P774" s="3"/>
       <c r="Q774" s="3"/>
     </row>
-    <row r="775" spans="1:17" ht="42" hidden="1">
+    <row r="775" spans="1:17" ht="84" hidden="1">
       <c r="A775" s="6">
         <v>44281</v>
       </c>
@@ -37237,7 +37237,7 @@
       <c r="P775" s="3"/>
       <c r="Q775" s="3"/>
     </row>
-    <row r="776" spans="1:17" ht="42" hidden="1">
+    <row r="776" spans="1:17" ht="84" hidden="1">
       <c r="A776" s="6">
         <v>44281</v>
       </c>
@@ -37276,7 +37276,7 @@
       <c r="P776" s="3"/>
       <c r="Q776" s="3"/>
     </row>
-    <row r="777" spans="1:17" ht="42" hidden="1">
+    <row r="777" spans="1:17" ht="84" hidden="1">
       <c r="A777" s="6">
         <v>44281</v>
       </c>
@@ -37315,7 +37315,7 @@
       <c r="P777" s="3"/>
       <c r="Q777" s="3"/>
     </row>
-    <row r="778" spans="1:17" ht="42" hidden="1">
+    <row r="778" spans="1:17" ht="84" hidden="1">
       <c r="A778" s="6">
         <v>44281</v>
       </c>
@@ -37354,7 +37354,7 @@
       <c r="P778" s="3"/>
       <c r="Q778" s="3"/>
     </row>
-    <row r="779" spans="1:17" ht="42" hidden="1">
+    <row r="779" spans="1:17" ht="84" hidden="1">
       <c r="A779" s="6">
         <v>44281</v>
       </c>
@@ -37393,7 +37393,7 @@
       <c r="P779" s="3"/>
       <c r="Q779" s="3"/>
     </row>
-    <row r="780" spans="1:17" ht="42" hidden="1">
+    <row r="780" spans="1:17" ht="84" hidden="1">
       <c r="A780" s="6">
         <v>44281</v>
       </c>
@@ -37432,7 +37432,7 @@
       <c r="P780" s="3"/>
       <c r="Q780" s="3"/>
     </row>
-    <row r="781" spans="1:17" ht="42" hidden="1">
+    <row r="781" spans="1:17" ht="84" hidden="1">
       <c r="A781" s="6">
         <v>44281</v>
       </c>
@@ -37471,7 +37471,7 @@
       <c r="P781" s="3"/>
       <c r="Q781" s="3"/>
     </row>
-    <row r="782" spans="1:17" ht="42" hidden="1">
+    <row r="782" spans="1:17" ht="84" hidden="1">
       <c r="A782" s="6">
         <v>44281</v>
       </c>
@@ -37510,7 +37510,7 @@
       <c r="P782" s="3"/>
       <c r="Q782" s="3"/>
     </row>
-    <row r="783" spans="1:17" ht="42" hidden="1">
+    <row r="783" spans="1:17" ht="84" hidden="1">
       <c r="A783" s="6">
         <v>44281</v>
       </c>
@@ -37549,7 +37549,7 @@
       <c r="P783" s="3"/>
       <c r="Q783" s="3"/>
     </row>
-    <row r="784" spans="1:17" ht="42" hidden="1">
+    <row r="784" spans="1:17" ht="84" hidden="1">
       <c r="A784" s="6">
         <v>44281</v>
       </c>
@@ -37588,7 +37588,7 @@
       <c r="P784" s="3"/>
       <c r="Q784" s="3"/>
     </row>
-    <row r="785" spans="1:17" ht="42" hidden="1">
+    <row r="785" spans="1:17" ht="84" hidden="1">
       <c r="A785" s="6">
         <v>44281</v>
       </c>
@@ -37627,7 +37627,7 @@
       <c r="P785" s="3"/>
       <c r="Q785" s="3"/>
     </row>
-    <row r="786" spans="1:17" ht="42" hidden="1">
+    <row r="786" spans="1:17" ht="84" hidden="1">
       <c r="A786" s="6">
         <v>44281</v>
       </c>
@@ -37666,7 +37666,7 @@
       <c r="P786" s="3"/>
       <c r="Q786" s="3"/>
     </row>
-    <row r="787" spans="1:17" ht="42" hidden="1">
+    <row r="787" spans="1:17" ht="84" hidden="1">
       <c r="A787" s="6">
         <v>44281</v>
       </c>
@@ -37705,7 +37705,7 @@
       <c r="P787" s="3"/>
       <c r="Q787" s="3"/>
     </row>
-    <row r="788" spans="1:17" ht="42" hidden="1">
+    <row r="788" spans="1:17" ht="84" hidden="1">
       <c r="A788" s="6">
         <v>44281</v>
       </c>
@@ -37744,7 +37744,7 @@
       <c r="P788" s="3"/>
       <c r="Q788" s="3"/>
     </row>
-    <row r="789" spans="1:17" ht="42" hidden="1">
+    <row r="789" spans="1:17" ht="84" hidden="1">
       <c r="A789" s="6">
         <v>44281</v>
       </c>
@@ -37783,7 +37783,7 @@
       <c r="P789" s="3"/>
       <c r="Q789" s="3"/>
     </row>
-    <row r="790" spans="1:17" ht="42" hidden="1">
+    <row r="790" spans="1:17" ht="84" hidden="1">
       <c r="A790" s="6">
         <v>44281</v>
       </c>
@@ -37822,7 +37822,7 @@
       <c r="P790" s="3"/>
       <c r="Q790" s="3"/>
     </row>
-    <row r="791" spans="1:17" ht="42" hidden="1">
+    <row r="791" spans="1:17" ht="84" hidden="1">
       <c r="A791" s="6">
         <v>44281</v>
       </c>
@@ -37861,7 +37861,7 @@
       <c r="P791" s="3"/>
       <c r="Q791" s="3"/>
     </row>
-    <row r="792" spans="1:17" ht="42" hidden="1">
+    <row r="792" spans="1:17" ht="84" hidden="1">
       <c r="A792" s="6">
         <v>44281</v>
       </c>
@@ -37900,7 +37900,7 @@
       <c r="P792" s="3"/>
       <c r="Q792" s="3"/>
     </row>
-    <row r="793" spans="1:17" ht="42" hidden="1">
+    <row r="793" spans="1:17" ht="56" hidden="1">
       <c r="A793" s="6">
         <v>44281</v>
       </c>
@@ -37978,7 +37978,7 @@
       <c r="P794" s="3"/>
       <c r="Q794" s="3"/>
     </row>
-    <row r="795" spans="1:17" ht="42" hidden="1">
+    <row r="795" spans="1:17" ht="84" hidden="1">
       <c r="A795" s="6">
         <v>44281</v>
       </c>
@@ -38017,7 +38017,7 @@
       <c r="P795" s="3"/>
       <c r="Q795" s="3"/>
     </row>
-    <row r="796" spans="1:17" ht="42" hidden="1">
+    <row r="796" spans="1:17" ht="84" hidden="1">
       <c r="A796" s="6">
         <v>44281</v>
       </c>
@@ -38056,7 +38056,7 @@
       <c r="P796" s="3"/>
       <c r="Q796" s="3"/>
     </row>
-    <row r="797" spans="1:17" ht="42" hidden="1">
+    <row r="797" spans="1:17" ht="84" hidden="1">
       <c r="A797" s="6">
         <v>44281</v>
       </c>
@@ -38095,7 +38095,7 @@
       <c r="P797" s="3"/>
       <c r="Q797" s="3"/>
     </row>
-    <row r="798" spans="1:17" ht="42" hidden="1">
+    <row r="798" spans="1:17" ht="84" hidden="1">
       <c r="A798" s="6">
         <v>44281</v>
       </c>
@@ -38134,7 +38134,7 @@
       <c r="P798" s="3"/>
       <c r="Q798" s="3"/>
     </row>
-    <row r="799" spans="1:17" ht="42" hidden="1">
+    <row r="799" spans="1:17" ht="84" hidden="1">
       <c r="A799" s="6">
         <v>44281</v>
       </c>
@@ -38173,7 +38173,7 @@
       <c r="P799" s="3"/>
       <c r="Q799" s="3"/>
     </row>
-    <row r="800" spans="1:17" ht="42" hidden="1">
+    <row r="800" spans="1:17" ht="84" hidden="1">
       <c r="A800" s="6">
         <v>44281</v>
       </c>
@@ -38212,7 +38212,7 @@
       <c r="P800" s="3"/>
       <c r="Q800" s="3"/>
     </row>
-    <row r="801" spans="1:17" ht="42" hidden="1">
+    <row r="801" spans="1:17" ht="84" hidden="1">
       <c r="A801" s="6">
         <v>44281</v>
       </c>
@@ -38251,7 +38251,7 @@
       <c r="P801" s="3"/>
       <c r="Q801" s="3"/>
     </row>
-    <row r="802" spans="1:17" ht="42" hidden="1">
+    <row r="802" spans="1:17" ht="84" hidden="1">
       <c r="A802" s="6">
         <v>44281</v>
       </c>
@@ -38290,7 +38290,7 @@
       <c r="P802" s="3"/>
       <c r="Q802" s="3"/>
     </row>
-    <row r="803" spans="1:17" ht="42" hidden="1">
+    <row r="803" spans="1:17" ht="84" hidden="1">
       <c r="A803" s="6">
         <v>44281</v>
       </c>
@@ -38329,7 +38329,7 @@
       <c r="P803" s="3"/>
       <c r="Q803" s="3"/>
     </row>
-    <row r="804" spans="1:17" ht="42" hidden="1">
+    <row r="804" spans="1:17" ht="84" hidden="1">
       <c r="A804" s="6">
         <v>44281</v>
       </c>
@@ -38368,7 +38368,7 @@
       <c r="P804" s="3"/>
       <c r="Q804" s="3"/>
     </row>
-    <row r="805" spans="1:17" ht="42" hidden="1">
+    <row r="805" spans="1:17" ht="84" hidden="1">
       <c r="A805" s="6">
         <v>44281</v>
       </c>
@@ -38407,7 +38407,7 @@
       <c r="P805" s="3"/>
       <c r="Q805" s="3"/>
     </row>
-    <row r="806" spans="1:17" ht="42" hidden="1">
+    <row r="806" spans="1:17" ht="84" hidden="1">
       <c r="A806" s="6">
         <v>44281</v>
       </c>
@@ -38446,7 +38446,7 @@
       <c r="P806" s="3"/>
       <c r="Q806" s="3"/>
     </row>
-    <row r="807" spans="1:17" ht="42" hidden="1">
+    <row r="807" spans="1:17" ht="84" hidden="1">
       <c r="A807" s="6">
         <v>44281</v>
       </c>
@@ -38485,7 +38485,7 @@
       <c r="P807" s="3"/>
       <c r="Q807" s="3"/>
     </row>
-    <row r="808" spans="1:17" ht="42" hidden="1">
+    <row r="808" spans="1:17" ht="84" hidden="1">
       <c r="A808" s="6">
         <v>44281</v>
       </c>
@@ -38524,7 +38524,7 @@
       <c r="P808" s="3"/>
       <c r="Q808" s="3"/>
     </row>
-    <row r="809" spans="1:17" ht="42" hidden="1">
+    <row r="809" spans="1:17" ht="84" hidden="1">
       <c r="A809" s="6">
         <v>44281</v>
       </c>
@@ -38563,7 +38563,7 @@
       <c r="P809" s="3"/>
       <c r="Q809" s="3"/>
     </row>
-    <row r="810" spans="1:17" ht="42" hidden="1">
+    <row r="810" spans="1:17" ht="84" hidden="1">
       <c r="A810" s="6">
         <v>44281</v>
       </c>
@@ -38602,7 +38602,7 @@
       <c r="P810" s="3"/>
       <c r="Q810" s="3"/>
     </row>
-    <row r="811" spans="1:17" ht="42" hidden="1">
+    <row r="811" spans="1:17" ht="84" hidden="1">
       <c r="A811" s="6">
         <v>44281</v>
       </c>
@@ -38641,7 +38641,7 @@
       <c r="P811" s="3"/>
       <c r="Q811" s="3"/>
     </row>
-    <row r="812" spans="1:17" ht="42" hidden="1">
+    <row r="812" spans="1:17" ht="84" hidden="1">
       <c r="A812" s="6">
         <v>44281</v>
       </c>
@@ -38680,7 +38680,7 @@
       <c r="P812" s="3"/>
       <c r="Q812" s="3"/>
     </row>
-    <row r="813" spans="1:17" ht="42" hidden="1">
+    <row r="813" spans="1:17" ht="84" hidden="1">
       <c r="A813" s="6">
         <v>44281</v>
       </c>
@@ -38719,7 +38719,7 @@
       <c r="P813" s="3"/>
       <c r="Q813" s="3"/>
     </row>
-    <row r="814" spans="1:17" ht="42" hidden="1">
+    <row r="814" spans="1:17" ht="84" hidden="1">
       <c r="A814" s="6">
         <v>44281</v>
       </c>
@@ -38758,7 +38758,7 @@
       <c r="P814" s="3"/>
       <c r="Q814" s="3"/>
     </row>
-    <row r="815" spans="1:17" ht="42" hidden="1">
+    <row r="815" spans="1:17" ht="84" hidden="1">
       <c r="A815" s="6">
         <v>44281</v>
       </c>
@@ -38797,7 +38797,7 @@
       <c r="P815" s="3"/>
       <c r="Q815" s="3"/>
     </row>
-    <row r="816" spans="1:17" ht="42" hidden="1">
+    <row r="816" spans="1:17" ht="84" hidden="1">
       <c r="A816" s="6">
         <v>44281</v>
       </c>
@@ -38836,7 +38836,7 @@
       <c r="P816" s="3"/>
       <c r="Q816" s="3"/>
     </row>
-    <row r="817" spans="1:17" ht="42" hidden="1">
+    <row r="817" spans="1:17" ht="84" hidden="1">
       <c r="A817" s="6">
         <v>44281</v>
       </c>
@@ -38875,7 +38875,7 @@
       <c r="P817" s="3"/>
       <c r="Q817" s="3"/>
     </row>
-    <row r="818" spans="1:17" ht="42" hidden="1">
+    <row r="818" spans="1:17" ht="84" hidden="1">
       <c r="A818" s="6">
         <v>44281</v>
       </c>
@@ -38914,7 +38914,7 @@
       <c r="P818" s="3"/>
       <c r="Q818" s="3"/>
     </row>
-    <row r="819" spans="1:17" ht="42" hidden="1">
+    <row r="819" spans="1:17" ht="84" hidden="1">
       <c r="A819" s="6">
         <v>44281</v>
       </c>
@@ -38953,7 +38953,7 @@
       <c r="P819" s="3"/>
       <c r="Q819" s="3"/>
     </row>
-    <row r="820" spans="1:17" ht="42" hidden="1">
+    <row r="820" spans="1:17" ht="84" hidden="1">
       <c r="A820" s="6">
         <v>44281</v>
       </c>
@@ -38992,7 +38992,7 @@
       <c r="P820" s="3"/>
       <c r="Q820" s="3"/>
     </row>
-    <row r="821" spans="1:17" ht="42" hidden="1">
+    <row r="821" spans="1:17" ht="84" hidden="1">
       <c r="A821" s="6">
         <v>44281</v>
       </c>
@@ -39031,7 +39031,7 @@
       <c r="P821" s="3"/>
       <c r="Q821" s="3"/>
     </row>
-    <row r="822" spans="1:17" ht="42" hidden="1">
+    <row r="822" spans="1:17" ht="84" hidden="1">
       <c r="A822" s="6">
         <v>44281</v>
       </c>
@@ -39070,7 +39070,7 @@
       <c r="P822" s="3"/>
       <c r="Q822" s="3"/>
     </row>
-    <row r="823" spans="1:17" ht="42" hidden="1">
+    <row r="823" spans="1:17" ht="84" hidden="1">
       <c r="A823" s="6">
         <v>44281</v>
       </c>
@@ -39109,7 +39109,7 @@
       <c r="P823" s="3"/>
       <c r="Q823" s="3"/>
     </row>
-    <row r="824" spans="1:17" ht="42" hidden="1">
+    <row r="824" spans="1:17" ht="84" hidden="1">
       <c r="A824" s="6">
         <v>44281</v>
       </c>
@@ -39148,7 +39148,7 @@
       <c r="P824" s="3"/>
       <c r="Q824" s="3"/>
     </row>
-    <row r="825" spans="1:17" ht="42" hidden="1">
+    <row r="825" spans="1:17" ht="84" hidden="1">
       <c r="A825" s="6">
         <v>44281</v>
       </c>
@@ -39187,7 +39187,7 @@
       <c r="P825" s="3"/>
       <c r="Q825" s="3"/>
     </row>
-    <row r="826" spans="1:17" ht="42" hidden="1">
+    <row r="826" spans="1:17" ht="84" hidden="1">
       <c r="A826" s="6">
         <v>44281</v>
       </c>
@@ -39226,7 +39226,7 @@
       <c r="P826" s="3"/>
       <c r="Q826" s="3"/>
     </row>
-    <row r="827" spans="1:17" ht="42" hidden="1">
+    <row r="827" spans="1:17" ht="84" hidden="1">
       <c r="A827" s="6">
         <v>44281</v>
       </c>
@@ -39265,7 +39265,7 @@
       <c r="P827" s="3"/>
       <c r="Q827" s="3"/>
     </row>
-    <row r="828" spans="1:17" ht="42" hidden="1">
+    <row r="828" spans="1:17" ht="84" hidden="1">
       <c r="A828" s="6">
         <v>44281</v>
       </c>
@@ -39304,7 +39304,7 @@
       <c r="P828" s="3"/>
       <c r="Q828" s="3"/>
     </row>
-    <row r="829" spans="1:17" ht="42" hidden="1">
+    <row r="829" spans="1:17" ht="84" hidden="1">
       <c r="A829" s="6">
         <v>44281</v>
       </c>
@@ -39343,7 +39343,7 @@
       <c r="P829" s="3"/>
       <c r="Q829" s="3"/>
     </row>
-    <row r="830" spans="1:17" ht="42" hidden="1">
+    <row r="830" spans="1:17" ht="84" hidden="1">
       <c r="A830" s="6">
         <v>44281</v>
       </c>
@@ -39382,7 +39382,7 @@
       <c r="P830" s="3"/>
       <c r="Q830" s="3"/>
     </row>
-    <row r="831" spans="1:17" ht="42" hidden="1">
+    <row r="831" spans="1:17" ht="84" hidden="1">
       <c r="A831" s="6">
         <v>44281</v>
       </c>
@@ -39421,7 +39421,7 @@
       <c r="P831" s="3"/>
       <c r="Q831" s="3"/>
     </row>
-    <row r="832" spans="1:17" ht="42" hidden="1">
+    <row r="832" spans="1:17" ht="84" hidden="1">
       <c r="A832" s="6">
         <v>44281</v>
       </c>
@@ -39460,7 +39460,7 @@
       <c r="P832" s="3"/>
       <c r="Q832" s="3"/>
     </row>
-    <row r="833" spans="1:17" ht="42" hidden="1">
+    <row r="833" spans="1:17" ht="84" hidden="1">
       <c r="A833" s="6">
         <v>44281</v>
       </c>
@@ -39499,7 +39499,7 @@
       <c r="P833" s="3"/>
       <c r="Q833" s="3"/>
     </row>
-    <row r="834" spans="1:17" ht="42" hidden="1">
+    <row r="834" spans="1:17" ht="84" hidden="1">
       <c r="A834" s="6">
         <v>44281</v>
       </c>
@@ -39538,7 +39538,7 @@
       <c r="P834" s="3"/>
       <c r="Q834" s="3"/>
     </row>
-    <row r="835" spans="1:17" ht="42" hidden="1">
+    <row r="835" spans="1:17" ht="84" hidden="1">
       <c r="A835" s="6">
         <v>44281</v>
       </c>
@@ -39577,7 +39577,7 @@
       <c r="P835" s="3"/>
       <c r="Q835" s="3"/>
     </row>
-    <row r="836" spans="1:17" ht="42" hidden="1">
+    <row r="836" spans="1:17" ht="84" hidden="1">
       <c r="A836" s="6">
         <v>44281</v>
       </c>
@@ -39616,7 +39616,7 @@
       <c r="P836" s="3"/>
       <c r="Q836" s="3"/>
     </row>
-    <row r="837" spans="1:17" ht="42" hidden="1">
+    <row r="837" spans="1:17" ht="84" hidden="1">
       <c r="A837" s="6">
         <v>44281</v>
       </c>
@@ -39655,7 +39655,7 @@
       <c r="P837" s="3"/>
       <c r="Q837" s="3"/>
     </row>
-    <row r="838" spans="1:17" ht="42" hidden="1">
+    <row r="838" spans="1:17" ht="84" hidden="1">
       <c r="A838" s="6">
         <v>44281</v>
       </c>
@@ -39694,7 +39694,7 @@
       <c r="P838" s="3"/>
       <c r="Q838" s="3"/>
     </row>
-    <row r="839" spans="1:17" ht="42" hidden="1">
+    <row r="839" spans="1:17" ht="84" hidden="1">
       <c r="A839" s="6">
         <v>44281</v>
       </c>
@@ -39733,7 +39733,7 @@
       <c r="P839" s="3"/>
       <c r="Q839" s="3"/>
     </row>
-    <row r="840" spans="1:17" ht="42" hidden="1">
+    <row r="840" spans="1:17" ht="84" hidden="1">
       <c r="A840" s="6">
         <v>44281</v>
       </c>
@@ -39772,7 +39772,7 @@
       <c r="P840" s="3"/>
       <c r="Q840" s="3"/>
     </row>
-    <row r="841" spans="1:17" ht="42" hidden="1">
+    <row r="841" spans="1:17" ht="84" hidden="1">
       <c r="A841" s="6">
         <v>44281</v>
       </c>
@@ -39811,7 +39811,7 @@
       <c r="P841" s="3"/>
       <c r="Q841" s="3"/>
     </row>
-    <row r="842" spans="1:17" ht="42" hidden="1">
+    <row r="842" spans="1:17" ht="84" hidden="1">
       <c r="A842" s="6">
         <v>44281</v>
       </c>
@@ -39850,7 +39850,7 @@
       <c r="P842" s="3"/>
       <c r="Q842" s="3"/>
     </row>
-    <row r="843" spans="1:17" ht="42" hidden="1">
+    <row r="843" spans="1:17" ht="84" hidden="1">
       <c r="A843" s="6">
         <v>44281</v>
       </c>
@@ -39889,7 +39889,7 @@
       <c r="P843" s="3"/>
       <c r="Q843" s="3"/>
     </row>
-    <row r="844" spans="1:17" ht="42" hidden="1">
+    <row r="844" spans="1:17" ht="84" hidden="1">
       <c r="A844" s="6">
         <v>44281</v>
       </c>
@@ -39928,7 +39928,7 @@
       <c r="P844" s="3"/>
       <c r="Q844" s="3"/>
     </row>
-    <row r="845" spans="1:17" ht="42" hidden="1">
+    <row r="845" spans="1:17" ht="84" hidden="1">
       <c r="A845" s="6">
         <v>44281</v>
       </c>
@@ -39967,7 +39967,7 @@
       <c r="P845" s="3"/>
       <c r="Q845" s="3"/>
     </row>
-    <row r="846" spans="1:17" ht="42" hidden="1">
+    <row r="846" spans="1:17" ht="84" hidden="1">
       <c r="A846" s="6">
         <v>44281</v>
       </c>
@@ -40006,7 +40006,7 @@
       <c r="P846" s="3"/>
       <c r="Q846" s="3"/>
     </row>
-    <row r="847" spans="1:17" ht="42" hidden="1">
+    <row r="847" spans="1:17" ht="84" hidden="1">
       <c r="A847" s="6">
         <v>44281</v>
       </c>
@@ -40045,7 +40045,7 @@
       <c r="P847" s="3"/>
       <c r="Q847" s="3"/>
     </row>
-    <row r="848" spans="1:17" ht="42" hidden="1">
+    <row r="848" spans="1:17" ht="84" hidden="1">
       <c r="A848" s="6">
         <v>44281</v>
       </c>
@@ -40084,7 +40084,7 @@
       <c r="P848" s="3"/>
       <c r="Q848" s="3"/>
     </row>
-    <row r="849" spans="1:17" ht="42" hidden="1">
+    <row r="849" spans="1:17" ht="84" hidden="1">
       <c r="A849" s="6">
         <v>44281</v>
       </c>
@@ -40123,7 +40123,7 @@
       <c r="P849" s="3"/>
       <c r="Q849" s="3"/>
     </row>
-    <row r="850" spans="1:17" ht="42" hidden="1">
+    <row r="850" spans="1:17" ht="84" hidden="1">
       <c r="A850" s="6">
         <v>44281</v>
       </c>
@@ -40162,7 +40162,7 @@
       <c r="P850" s="3"/>
       <c r="Q850" s="3"/>
     </row>
-    <row r="851" spans="1:17" ht="42" hidden="1">
+    <row r="851" spans="1:17" ht="84" hidden="1">
       <c r="A851" s="6">
         <v>44281</v>
       </c>
@@ -40201,7 +40201,7 @@
       <c r="P851" s="3"/>
       <c r="Q851" s="3"/>
     </row>
-    <row r="852" spans="1:17" ht="42" hidden="1">
+    <row r="852" spans="1:17" ht="84" hidden="1">
       <c r="A852" s="6">
         <v>44281</v>
       </c>
@@ -40240,7 +40240,7 @@
       <c r="P852" s="3"/>
       <c r="Q852" s="3"/>
     </row>
-    <row r="853" spans="1:17" ht="42" hidden="1">
+    <row r="853" spans="1:17" ht="84" hidden="1">
       <c r="A853" s="6">
         <v>44281</v>
       </c>
@@ -40279,7 +40279,7 @@
       <c r="P853" s="3"/>
       <c r="Q853" s="3"/>
     </row>
-    <row r="854" spans="1:17" ht="42" hidden="1">
+    <row r="854" spans="1:17" ht="84" hidden="1">
       <c r="A854" s="6">
         <v>44281</v>
       </c>
@@ -40318,7 +40318,7 @@
       <c r="P854" s="3"/>
       <c r="Q854" s="3"/>
     </row>
-    <row r="855" spans="1:17" ht="42" hidden="1">
+    <row r="855" spans="1:17" ht="84" hidden="1">
       <c r="A855" s="6">
         <v>44281</v>
       </c>
@@ -40357,7 +40357,7 @@
       <c r="P855" s="3"/>
       <c r="Q855" s="3"/>
     </row>
-    <row r="856" spans="1:17" ht="42" hidden="1">
+    <row r="856" spans="1:17" ht="84" hidden="1">
       <c r="A856" s="6">
         <v>44281</v>
       </c>
@@ -40396,7 +40396,7 @@
       <c r="P856" s="3"/>
       <c r="Q856" s="3"/>
     </row>
-    <row r="857" spans="1:17" ht="42" hidden="1">
+    <row r="857" spans="1:17" ht="84" hidden="1">
       <c r="A857" s="6">
         <v>44281</v>
       </c>
@@ -40435,7 +40435,7 @@
       <c r="P857" s="3"/>
       <c r="Q857" s="3"/>
     </row>
-    <row r="858" spans="1:17" ht="42" hidden="1">
+    <row r="858" spans="1:17" ht="84" hidden="1">
       <c r="A858" s="6">
         <v>44281</v>
       </c>
@@ -40474,7 +40474,7 @@
       <c r="P858" s="3"/>
       <c r="Q858" s="3"/>
     </row>
-    <row r="859" spans="1:17" ht="42" hidden="1">
+    <row r="859" spans="1:17" ht="84" hidden="1">
       <c r="A859" s="6">
         <v>44281</v>
       </c>
@@ -40513,7 +40513,7 @@
       <c r="P859" s="3"/>
       <c r="Q859" s="3"/>
     </row>
-    <row r="860" spans="1:17" ht="42" hidden="1">
+    <row r="860" spans="1:17" ht="84" hidden="1">
       <c r="A860" s="6">
         <v>44281</v>
       </c>
@@ -40552,7 +40552,7 @@
       <c r="P860" s="3"/>
       <c r="Q860" s="3"/>
     </row>
-    <row r="861" spans="1:17" ht="42" hidden="1">
+    <row r="861" spans="1:17" ht="84" hidden="1">
       <c r="A861" s="6">
         <v>44281</v>
       </c>
@@ -40591,7 +40591,7 @@
       <c r="P861" s="3"/>
       <c r="Q861" s="3"/>
     </row>
-    <row r="862" spans="1:17" ht="42" hidden="1">
+    <row r="862" spans="1:17" ht="84" hidden="1">
       <c r="A862" s="6">
         <v>44281</v>
       </c>
@@ -40630,7 +40630,7 @@
       <c r="P862" s="3"/>
       <c r="Q862" s="3"/>
     </row>
-    <row r="863" spans="1:17" ht="42" hidden="1">
+    <row r="863" spans="1:17" ht="84" hidden="1">
       <c r="A863" s="6">
         <v>44281</v>
       </c>
@@ -40671,13 +40671,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q863" xr:uid="{C6AB3E04-AB88-EB47-836D-EE8BAF3E1D28}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="LBTEST"/>
-        <filter val="LBTESTCD"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
+    <filterColumn colId="11">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
